--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Docling/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>1074</v>
       </c>
       <c r="C2" t="n">
-        <v>22.25325884543761</v>
+        <v>1022</v>
       </c>
       <c r="D2" t="n">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.007448789571695</v>
+      </c>
+      <c r="G2" t="n">
         <v>151</v>
       </c>
-      <c r="F2" t="n">
-        <v>32.45033112582782</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>122</v>
       </c>
-      <c r="H2" t="n">
-        <v>145</v>
-      </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="J2" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21.85430463576159</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.28476821192053</v>
+      </c>
+      <c r="N2" t="n">
+        <v>22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>80.79470198675497</v>
+      </c>
+      <c r="P2" t="n">
+        <v>95.36423841059603</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.8145695364238411</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.8978102189781022</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>85.05939688673726</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>60.07131706626559</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>1275</v>
       </c>
       <c r="C3" t="n">
-        <v>22.11764705882353</v>
+        <v>1227</v>
       </c>
       <c r="D3" t="n">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.294117647058823</v>
+      </c>
+      <c r="G3" t="n">
         <v>154</v>
       </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>99</v>
       </c>
-      <c r="H3" t="n">
-        <v>145</v>
-      </c>
       <c r="I3" t="n">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="J3" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
+        <v>17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>37.66233766233766</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36</v>
+      </c>
+      <c r="O3" t="n">
+        <v>64.28571428571429</v>
+      </c>
+      <c r="P3" t="n">
+        <v>87.66233766233766</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.6493506493506493</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.7874015748031497</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>59.2489399076184</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>30.66927041033426</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>2048</v>
       </c>
       <c r="C4" t="n">
-        <v>28.90625</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="n">
-        <v>592</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
+        <v>110</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.8359375</v>
+      </c>
+      <c r="G4" t="n">
         <v>324</v>
       </c>
-      <c r="F4" t="n">
-        <v>42.90123456790123</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>263</v>
       </c>
-      <c r="H4" t="n">
-        <v>299</v>
-      </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.12345679012346</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.41975308641975</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>81.17283950617285</v>
+      </c>
+      <c r="P4" t="n">
+        <v>84.87654320987654</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.8611111111111112</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.9253731343283582</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>89.11363435861581</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>57.88002678425037</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>357</v>
       </c>
       <c r="C5" t="n">
-        <v>54.90196078431373</v>
+        <v>168</v>
       </c>
       <c r="D5" t="n">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>53.50140056022409</v>
+      </c>
+      <c r="G5" t="n">
         <v>42</v>
       </c>
-      <c r="F5" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>16</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>19</v>
       </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
       <c r="J5" t="n">
+        <v>23</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>61.90476190476191</v>
+      </c>
+      <c r="M5" t="n">
+        <v>54.76190476190477</v>
+      </c>
+      <c r="N5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
+        <v>38.09523809523809</v>
+      </c>
+      <c r="P5" t="n">
+        <v>45.23809523809524</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.3809523809523809</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.5517241379310345</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>47.03768739817728</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>17.89727012018025</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>1369</v>
       </c>
       <c r="C6" t="n">
-        <v>32.94375456537619</v>
+        <v>1135</v>
       </c>
       <c r="D6" t="n">
-        <v>451</v>
+        <v>234</v>
       </c>
       <c r="E6" t="n">
+        <v>106</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.83564645726808</v>
+      </c>
+      <c r="G6" t="n">
         <v>184</v>
       </c>
-      <c r="F6" t="n">
-        <v>63.58695652173913</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>83</v>
       </c>
-      <c r="H6" t="n">
-        <v>154</v>
-      </c>
       <c r="I6" t="n">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="J6" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
+        <v>41</v>
+      </c>
+      <c r="L6" t="n">
+        <v>64.67391304347827</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34.78260869565217</v>
+      </c>
+      <c r="N6" t="n">
+        <v>55</v>
+      </c>
+      <c r="O6" t="n">
+        <v>45.10869565217391</v>
+      </c>
+      <c r="P6" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.4510869565217391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.6217228464419475</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>57.74777262893689</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>20.11777883969174</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>755</v>
       </c>
       <c r="C7" t="n">
-        <v>10.06622516556291</v>
+        <v>716</v>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E7" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.139072847682121</v>
+      </c>
+      <c r="G7" t="n">
         <v>104</v>
       </c>
-      <c r="F7" t="n">
-        <v>25.96153846153846</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>79</v>
       </c>
-      <c r="H7" t="n">
-        <v>101</v>
-      </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>26.92307692307692</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.653846153846153</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>75.96153846153845</v>
+      </c>
+      <c r="P7" t="n">
+        <v>94.23076923076923</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.7596153846153846</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.8633879781420765</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>71.23552743109197</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>53.92036601479815</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1135</v>
       </c>
       <c r="C8" t="n">
-        <v>49.16299559471366</v>
+        <v>1056</v>
       </c>
       <c r="D8" t="n">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
+        <v>69</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.03964757709251</v>
+      </c>
+      <c r="G8" t="n">
         <v>127</v>
       </c>
-      <c r="F8" t="n">
-        <v>59.84251968503938</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>114</v>
       </c>
-      <c r="H8" t="n">
-        <v>124</v>
-      </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.23622047244094</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.149606299212598</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>89.76377952755905</v>
+      </c>
+      <c r="P8" t="n">
+        <v>96.85039370078739</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.9830508474576272</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.9133858267716536</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.9469387755102041</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>86.27276404464658</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>43.32518126690687</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1071</v>
       </c>
       <c r="C9" t="n">
-        <v>15.96638655462185</v>
+        <v>986</v>
       </c>
       <c r="D9" t="n">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.04481792717087</v>
+      </c>
+      <c r="G9" t="n">
         <v>127</v>
       </c>
-      <c r="F9" t="n">
-        <v>24.40944881889764</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>106</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>115</v>
       </c>
-      <c r="I9" t="n">
-        <v>19</v>
-      </c>
       <c r="J9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>21.25984251968504</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.17322834645669</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>83.46456692913385</v>
+      </c>
+      <c r="P9" t="n">
+        <v>90.55118110236219</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.8346456692913385</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9098712446351931</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>85.80136307947457</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>58.43115505137547</v>
       </c>
     </row>

--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Docling/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="B2" t="n">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0726</v>
+        <v>0.0433</v>
       </c>
       <c r="F2" t="n">
         <v>151</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="B3" t="n">
-        <v>1231</v>
+        <v>1214</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0667</v>
+        <v>0.0572</v>
       </c>
       <c r="F3" t="n">
         <v>154</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2048</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>2020</v>
+        <v>1974</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0664</v>
+        <v>0.0254</v>
       </c>
       <c r="F4" t="n">
         <v>324</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B5" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C5" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5294</v>
+        <v>0.5417999999999999</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1369</v>
+        <v>1256</v>
       </c>
       <c r="B6" t="n">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>0.225</v>
+        <v>0.1385</v>
       </c>
       <c r="F6" t="n">
         <v>184</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B7" t="n">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0834</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="F7" t="n">
         <v>104</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="B8" t="n">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1286</v>
+        <v>0.038</v>
       </c>
       <c r="F8" t="n">
         <v>127</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="B9" t="n">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0999</v>
+        <v>0.0489</v>
       </c>
       <c r="F9" t="n">
         <v>127</v>
